--- a/朱翔19891102/朱翔计划.xlsx
+++ b/朱翔19891102/朱翔计划.xlsx
@@ -78,6 +78,9 @@
     <t>派工单</t>
   </si>
   <si>
+    <t>王</t>
+  </si>
+  <si>
     <t>派工单汇总</t>
   </si>
   <si>
@@ -103,9 +106,6 @@
   </si>
   <si>
     <t>物料配置</t>
-  </si>
-  <si>
-    <t>王</t>
   </si>
   <si>
     <t>权限管理</t>
@@ -127,7 +127,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,13 +185,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -284,23 +277,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,6 +320,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -339,30 +356,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -375,48 +368,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -435,6 +428,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -447,7 +476,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,48 +495,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,148 +625,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1144,7 +1137,7 @@
   <dimension ref="C2:G20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22" customHeight="1" outlineLevelCol="6"/>
@@ -1262,34 +1255,34 @@
         <v>1</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="3:5">
       <c r="C9" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="4">
         <v>0.5</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="3:5">
       <c r="C10" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" s="4">
         <v>0.5</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="3:5">
       <c r="C11" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D11" s="4">
         <v>0.5</v>
@@ -1300,7 +1293,7 @@
     </row>
     <row r="12" customHeight="1" spans="3:5">
       <c r="C12" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" s="4">
         <v>0.5</v>
@@ -1311,7 +1304,7 @@
     </row>
     <row r="13" customHeight="1" spans="3:5">
       <c r="C13" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" s="4">
         <v>0.5</v>
@@ -1322,7 +1315,7 @@
     </row>
     <row r="14" customHeight="1" spans="3:5">
       <c r="C14" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" s="4">
         <v>0.5</v>
@@ -1333,7 +1326,7 @@
     </row>
     <row r="15" customHeight="1" spans="3:5">
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" s="4">
         <v>0.5</v>
@@ -1344,7 +1337,7 @@
     </row>
     <row r="16" customHeight="1" spans="3:5">
       <c r="C16" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16" s="4">
         <v>0.5</v>
@@ -1355,13 +1348,13 @@
     </row>
     <row r="17" customHeight="1" spans="3:5">
       <c r="C17" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="3:5">

--- a/朱翔19891102/朱翔计划.xlsx
+++ b/朱翔19891102/朱翔计划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
   <si>
     <t>页面</t>
   </si>
@@ -78,40 +78,37 @@
     <t>派工单</t>
   </si>
   <si>
+    <t>王，代</t>
+  </si>
+  <si>
+    <t>派工单汇总</t>
+  </si>
+  <si>
+    <t>派工单明细</t>
+  </si>
+  <si>
+    <t>车间生产汇总</t>
+  </si>
+  <si>
+    <t>产线生产汇总</t>
+  </si>
+  <si>
+    <t>入库明细</t>
+  </si>
+  <si>
+    <t>出库明细</t>
+  </si>
+  <si>
+    <t>库存</t>
+  </si>
+  <si>
+    <t>物料配置</t>
+  </si>
+  <si>
     <t>王</t>
   </si>
   <si>
-    <t>派工单汇总</t>
-  </si>
-  <si>
-    <t>派工单明细</t>
-  </si>
-  <si>
-    <t>车间生产汇总</t>
-  </si>
-  <si>
-    <t>产线生产汇总</t>
-  </si>
-  <si>
-    <t>入库单</t>
-  </si>
-  <si>
-    <t>库存</t>
-  </si>
-  <si>
-    <t>出库</t>
-  </si>
-  <si>
-    <t>出入库明细</t>
-  </si>
-  <si>
-    <t>物料配置</t>
-  </si>
-  <si>
     <t>权限管理</t>
-  </si>
-  <si>
-    <t>王，代</t>
   </si>
   <si>
     <t>合计</t>
@@ -122,10 +119,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -162,9 +159,115 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,115 +281,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,25 +311,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,157 +491,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,6 +520,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -541,38 +568,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,25 +604,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -628,145 +625,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1134,10 +1131,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:G20"/>
+  <dimension ref="C2:G19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22" customHeight="1" outlineLevelCol="6"/>
@@ -1288,7 +1285,7 @@
         <v>0.5</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="3:5">
@@ -1299,7 +1296,7 @@
         <v>0.5</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="3:5">
@@ -1340,50 +1337,39 @@
         <v>28</v>
       </c>
       <c r="D16" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="3:5">
       <c r="C17" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D17" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="3:5">
-      <c r="C18" s="3" t="s">
-        <v>30</v>
+      <c r="C18" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="D18" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E18" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="3:4">
+      <c r="C19" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" customHeight="1" spans="3:5">
-      <c r="C19" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="4">
-        <v>1</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="3:4">
-      <c r="C20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="1">
+      <c r="D19" s="1">
         <v>10</v>
       </c>
     </row>
